--- a/medicine/Enfance/L'Émeraude_du_désert/L'Émeraude_du_désert.xlsx
+++ b/medicine/Enfance/L'Émeraude_du_désert/L'Émeraude_du_désert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27%C3%89meraude_du_d%C3%A9sert</t>
+          <t>L'Émeraude_du_désert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Émeraude du désert (The Beggar of Volubilis) est le quatorzième volume de la série de romans écrits par Caroline Lawrence, Les Mystères romains, publié en France, aux éditions Milan, le 11 février 2010. L'action de ce roman historique se situe sous la Rome antique. C'est, en septembre 2015, le dernier tome de la série à avoir été traduit en français.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27%C3%89meraude_du_d%C3%A9sert</t>
+          <t>L'Émeraude_du_désert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27%C3%89meraude_du_d%C3%A9sert</t>
+          <t>L'Émeraude_du_désert</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Parutions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Milan (Poche Histoire), février 2010,  (ISBN 978-2-7459-5403-9)</t>
         </is>
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27%C3%89meraude_du_d%C3%A9sert</t>
+          <t>L'Émeraude_du_désert</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,7 +584,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel des éditions Milan
  Portail de la Rome antique   Portail de la littérature américaine   Portail de la littérature d’enfance et de jeunesse                   </t>
